--- a/database_data/requirements.xlsx
+++ b/database_data/requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Placement_mngmt_syst\database_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Placement_Management_System\database_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B60A16C-7192-4682-9B23-C1A82F02A5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5586820-DD04-4267-8EAC-F99CB2BC0140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="350" yWindow="1140" windowWidth="18850" windowHeight="9490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -342,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,7 +406,7 @@
         <v>47</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D53" si="2">D2+0.1</f>
+        <f t="shared" ref="D3:D51" si="2">D2+0.1</f>
         <v>5.1999999999999993</v>
       </c>
       <c r="E3">
@@ -1458,6 +1459,74 @@
       </c>
       <c r="E53">
         <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1053</v>
+      </c>
+      <c r="B54">
+        <v>90</v>
+      </c>
+      <c r="C54">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1054</v>
+      </c>
+      <c r="B55">
+        <v>85</v>
+      </c>
+      <c r="C55">
+        <v>75</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1055</v>
+      </c>
+      <c r="B56">
+        <v>80</v>
+      </c>
+      <c r="C56">
+        <v>70</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1056</v>
+      </c>
+      <c r="B57">
+        <v>75</v>
+      </c>
+      <c r="C57">
+        <v>70</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/database_data/requirements.xlsx
+++ b/database_data/requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Placement_Management_System\database_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Placement_mngmt_syst\database_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5586820-DD04-4267-8EAC-F99CB2BC0140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B60A16C-7192-4682-9B23-C1A82F02A5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="1140" windowWidth="18850" windowHeight="9490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -343,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,7 +405,7 @@
         <v>47</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D51" si="2">D2+0.1</f>
+        <f t="shared" ref="D3:D53" si="2">D2+0.1</f>
         <v>5.1999999999999993</v>
       </c>
       <c r="E3">
@@ -1459,74 +1458,6 @@
       </c>
       <c r="E53">
         <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>1053</v>
-      </c>
-      <c r="B54">
-        <v>90</v>
-      </c>
-      <c r="C54">
-        <v>50</v>
-      </c>
-      <c r="D54">
-        <v>7</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>1054</v>
-      </c>
-      <c r="B55">
-        <v>85</v>
-      </c>
-      <c r="C55">
-        <v>75</v>
-      </c>
-      <c r="D55">
-        <v>7</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>1055</v>
-      </c>
-      <c r="B56">
-        <v>80</v>
-      </c>
-      <c r="C56">
-        <v>70</v>
-      </c>
-      <c r="D56">
-        <v>7</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>1056</v>
-      </c>
-      <c r="B57">
-        <v>75</v>
-      </c>
-      <c r="C57">
-        <v>70</v>
-      </c>
-      <c r="D57">
-        <v>6</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
